--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -446,14 +446,14 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41645.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.68</v>
-      </c>
       <c r="F2" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41645.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>9.32</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41645.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.95</v>
+        <v>0.19</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.3</v>
+        <v>0.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>0.19</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.32</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41645.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>24.09</v>
+        <v>2.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.44</v>
+        <v>5.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.33</v>
+        <v>4.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.17</v>
+        <v>6.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.48</v>
+        <v>2.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF5" s="4" t="n">
         <v>5.92</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>274.03</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>35.09</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>13.38</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>59.18</v>
-      </c>
       <c r="AG5" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.21</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41645.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>14.13</v>
+        <v>1.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41645.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>15.44</v>
+        <v>1.54</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.53</v>
+        <v>0.75</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>95.51000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>18.56</v>
+        <v>1.86</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41645.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>50.59</v>
+        <v>5.06</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>41.72</v>
+        <v>4.17</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.11</v>
+        <v>1.81</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>67.55</v>
+        <v>6.76</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>28.07</v>
+        <v>2.81</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.85</v>
+        <v>1.89</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>26.02</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>269.55</v>
+        <v>26.95</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>50.63</v>
+        <v>5.06</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>34.52</v>
+        <v>3.45</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.99</v>
+        <v>1.8</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.65</v>
+        <v>3.37</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.4</v>
+        <v>1.54</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.53</v>
+        <v>2.15</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>61.3</v>
+        <v>6.13</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41645.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>39.59</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>3.78</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -1493,59 +1493,59 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="V10" s="4" t="n">
         <v>0</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="AA10" s="4" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="4" t="n">
         <v>0</v>

--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,18 +446,18 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41645.34027777778</v>
+        <v>44894.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41645.34722222222</v>
+        <v>44894.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.08</v>
+        <v>1.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.32</v>
+        <v>5.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.22</v>
+        <v>4.28</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.05</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.27</v>
+        <v>6.09</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.24</v>
+        <v>5.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.11</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41645.35416666666</v>
+        <v>44894.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.76</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.31</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.63</v>
+        <v>3.85</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>2.67</v>
       </c>
-      <c r="U4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.36</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>1.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.68</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41645.36111111111</v>
+        <v>44894.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.51</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.14</v>
+        <v>1.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.83</v>
+        <v>0.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.52</v>
+        <v>2.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.85</v>
+        <v>0.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.91</v>
+        <v>0.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.06</v>
+        <v>0.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.17</v>
+        <v>0.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.86</v>
+        <v>0.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.64</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.4</v>
+        <v>5.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.13</v>
+        <v>1.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.51</v>
+        <v>0.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.82</v>
+        <v>0.4</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.32</v>
+        <v>0.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.34</v>
+        <v>0.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.57</v>
+        <v>0.36</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.92</v>
+        <v>1.98</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.23</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.12</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41645.36805555555</v>
+        <v>44894.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.26</v>
+        <v>20.53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.15</v>
+        <v>15.37</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.48</v>
+        <v>44.89</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.38</v>
+        <v>37.28</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.15</v>
+        <v>16.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.47</v>
+        <v>59.38</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.26</v>
+        <v>24.85</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.13</v>
+        <v>11.23</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.17</v>
+        <v>16.83</v>
       </c>
       <c r="L6" s="4" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1.9</v>
+        <v>238.58</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.51</v>
+        <v>44.84</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.15</v>
+        <v>14.82</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.39</v>
+        <v>30.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.17</v>
+        <v>15.92</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.02</v>
+        <v>2.42</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.68</v>
+        <v>29.39</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.14</v>
+        <v>13.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.14</v>
+        <v>11.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.16</v>
+        <v>13.72</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.23</v>
+        <v>19.26</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.46</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.41</v>
+        <v>53.96</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.1</v>
+        <v>8.65</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41645.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41645.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41645.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41645.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41645.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>19.08</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>198.13</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>37.08</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.94</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.77</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>15.49</v>
+        <v>18.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -457,7 +457,7 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -474,7 +474,7 @@
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -759,103 +759,103 @@
         <v>44894.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.23</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.08</v>
+        <v>50.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.28</v>
+        <v>42.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.69</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.09</v>
+        <v>60.94</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.94</v>
+        <v>19.37</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.62</v>
+        <v>26.19</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.25</v>
+        <v>272.46</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.06</v>
+        <v>50.55</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.43</v>
+        <v>34.32</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.89</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.13</v>
+        <v>31.3</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.5</v>
+        <v>14.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.59</v>
+        <v>55.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44894.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.22</v>
+        <v>32.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.49</v>
+        <v>54.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.86</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.41</v>
+        <v>204.11</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.85</v>
+        <v>38.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.67</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.85</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.85</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.05</v>
+        <v>50.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44894.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>44894.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.19</v>
+        <v>23.188</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.23</v>
+        <v>17.229</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.84</v>
+        <v>50.838</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>42.78</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.69</v>
+        <v>18.694</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.94</v>
+        <v>60.943</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28</v>
+        <v>27.997</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>12.7</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.37</v>
+        <v>19.375</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.89</v>
+        <v>21.894</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.21</v>
+        <v>21.215</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.6</v>
+        <v>6.604</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.29</v>
+        <v>18.291</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.19</v>
+        <v>26.186</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.95</v>
+        <v>14.954</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.068</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>272.46</v>
+        <v>272.461</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.55</v>
+        <v>50.551</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.8</v>
+        <v>16.799</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>34.32</v>
+        <v>34.318</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.89</v>
+        <v>17.889</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.39</v>
+        <v>3.388</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.3</v>
+        <v>31.301</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.98</v>
+        <v>14.982</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.24</v>
+        <v>13.241</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.64</v>
+        <v>15.637</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.48</v>
+        <v>22.482</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.519</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>55.89</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>10.05</v>
+        <v>10.048</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.88</v>
+        <v>20.882</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44894.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.551</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.08</v>
+        <v>13.083</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.52</v>
+        <v>38.516</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.2</v>
+        <v>32.204</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.06</v>
+        <v>14.057</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>54.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.22</v>
+        <v>21.218</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.65</v>
+        <v>9.651</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.56</v>
+        <v>14.556</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.23</v>
+        <v>16.233</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.12</v>
+        <v>16.123</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.92</v>
+        <v>4.916</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.78</v>
+        <v>13.781</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.86</v>
+        <v>19.863</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.37</v>
+        <v>11.374</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.11</v>
+        <v>204.109</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.48</v>
+        <v>38.477</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.69</v>
+        <v>12.687</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.14</v>
+        <v>26.136</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.58</v>
+        <v>13.583</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.384</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.67</v>
+        <v>26.671</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.33</v>
+        <v>11.328</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>10.05</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.85</v>
+        <v>11.853</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.85</v>
+        <v>16.846</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>50.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.55</v>
+        <v>7.554</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.81</v>
+        <v>15.813</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44894.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="8" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,103 +967,207 @@
         <v>44894.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.12</v>
+        <v>5.118</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.78</v>
+        <v>3.778</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.41</v>
+        <v>11.411</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.67</v>
+        <v>9.667999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.2</v>
+        <v>4.197</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>20.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.18</v>
+        <v>6.184</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.359</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.09</v>
+        <v>5.094</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.68</v>
+        <v>4.677</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.669</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.02</v>
+        <v>4.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.96</v>
+        <v>5.964</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.34</v>
+        <v>3.336</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.45</v>
+        <v>55.453</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.47</v>
+        <v>11.475</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.694</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.88</v>
+        <v>7.875</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.97</v>
+        <v>3.969</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.68</v>
+        <v>9.676</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.36</v>
+        <v>3.365</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.06</v>
+        <v>3.056</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.61</v>
+        <v>3.606</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>5.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.77</v>
+        <v>19.766</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.35</v>
+        <v>2.349</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44894.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.58</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>53.96</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_213.xlsx
+++ b/DATA_goal/Junction_Flooding_213.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="8" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
@@ -967,207 +967,103 @@
         <v>44894.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.118</v>
+        <v>5.12</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.778</v>
+        <v>3.78</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.411</v>
+        <v>11.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.667999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.197</v>
+        <v>4.2</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>20.99</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.184</v>
+        <v>6.18</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2.91</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.359</v>
+        <v>4.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.094</v>
+        <v>5.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.677</v>
+        <v>4.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.669</v>
+        <v>1.67</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.023</v>
+        <v>4.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.964</v>
+        <v>5.96</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.336</v>
+        <v>3.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.453</v>
+        <v>55.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.475</v>
+        <v>11.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.694</v>
+        <v>3.69</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.875</v>
+        <v>7.88</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.969</v>
+        <v>3.97</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.676</v>
+        <v>9.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.365</v>
+        <v>3.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.056</v>
+        <v>3.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.606</v>
+        <v>3.61</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>5.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.766</v>
+        <v>19.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.349</v>
+        <v>2.35</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.598</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44894.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.28</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>59.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.85</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.72</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.52</v>
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
